--- a/data-input/taxhavens-data/GDP-selected_countries.xlsx
+++ b/data-input/taxhavens-data/GDP-selected_countries.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20406"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gaston/Documents/GitHub/wid-world/data-input/taxhavens-data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\g.nievas\Documents\GitHub\wid-world\data-input\taxhavens-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6579444D-646F-844E-BA14-AC5B2069C68C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4C160-729C-406F-BF11-C92212EB5A81}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2000" windowWidth="24240" windowHeight="13080" xr2:uid="{77657DD7-7BE2-DF42-BAB4-8DD2F47DEFB5}"/>
+    <workbookView xWindow="1275" yWindow="1995" windowWidth="24240" windowHeight="13080" xr2:uid="{77657DD7-7BE2-DF42-BAB4-8DD2F47DEFB5}"/>
   </bookViews>
   <sheets>
     <sheet name="LaneMilesiFerreti" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="12">
   <si>
     <t>Jersey</t>
   </si>
@@ -73,7 +73,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Times New Roman"/>
@@ -99,6 +99,12 @@
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF091D23"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -130,7 +136,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -144,6 +150,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -460,15 +467,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0841D9F-0DD6-E24C-90E5-3168A67F0C89}">
-  <dimension ref="A1:E157"/>
+  <dimension ref="A1:E160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F62" sqref="F62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="56" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -485,7 +492,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -499,7 +506,7 @@
         <v>0.41666699941666696</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -513,7 +520,7 @@
         <v>0.41092023742942463</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -527,7 +534,7 @@
         <v>0.40039046153000818</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -541,7 +548,7 @@
         <v>0.40817094529930764</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -555,7 +562,7 @@
         <v>0.42775643974766342</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -569,7 +576,7 @@
         <v>0.45204116566666663</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -583,7 +590,7 @@
         <v>0.55650983233333329</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -597,7 +604,7 @@
         <v>0.57327199900000003</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -611,7 +618,7 @@
         <v>0.5215045823333333</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -625,7 +632,7 @@
         <v>0.47218116566666662</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -639,7 +646,7 @@
         <v>0.43029499900000001</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -653,7 +660,7 @@
         <v>0.4976413323333333</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -667,7 +674,7 @@
         <v>0.57244683233333338</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -681,7 +688,7 @@
         <v>0.65972458233333331</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -695,7 +702,7 @@
         <v>0.75180666624999992</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -709,7 +716,7 @@
         <v>0.77924599974999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -723,7 +730,7 @@
         <v>0.68219733333333332</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -737,7 +744,7 @@
         <v>0.61192650000000004</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -751,7 +758,7 @@
         <v>0.56217016666666664</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -765,7 +772,7 @@
         <v>0.61117275000000004</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -779,7 +786,7 @@
         <v>0.56317716666666662</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -793,7 +800,7 @@
         <v>0.56701533333333332</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -807,7 +814,7 @@
         <v>0.56977416666666669</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -821,7 +828,7 @@
         <v>0.66675655333333339</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -835,7 +842,7 @@
         <v>0.65342660416666665</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -849,7 +856,7 @@
         <v>0.63366812000000006</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -863,7 +870,7 @@
         <v>0.64095825500000003</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -880,7 +887,7 @@
         <v>0.61083611416666672</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -897,7 +904,7 @@
         <v>0.60382359416666653</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -914,7 +921,7 @@
         <v>0.61805684500000002</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -931,7 +938,7 @@
         <v>0.66093083333333325</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -948,7 +955,7 @@
         <v>0.69465500000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -965,7 +972,7 @@
         <v>0.66722333333333339</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -982,7 +989,7 @@
         <v>0.61247249999999998</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -999,7 +1006,7 @@
         <v>0.54618</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -1016,7 +1023,7 @@
         <v>0.54999833333333337</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -1033,7 +1040,7 @@
         <v>0.54348666666666667</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -1050,7 +1057,7 @@
         <v>0.49977166666666661</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -1067,7 +1074,7 @@
         <v>0.5439662500000001</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -1084,7 +1091,7 @@
         <v>0.64191926349599604</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1108,7 @@
         <v>0.64717934556016499</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -1118,7 +1125,7 @@
         <v>0.62414083574049495</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -1135,7 +1142,7 @@
         <v>0.63304698885732702</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -1152,7 +1159,7 @@
         <v>0.63966057761347705</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -1169,7 +1176,7 @@
         <v>0.60772962687825505</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -1186,7 +1193,7 @@
         <v>0.65454547893142601</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -1203,7 +1210,7 @@
         <v>0.74063446369708397</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -1220,7 +1227,7 @@
         <v>0.77700259811597605</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -1237,7 +1244,7 @@
         <v>0.77697668234412298</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -1254,7 +1261,7 @@
         <v>0.78344511001192896</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -1271,7 +1278,7 @@
         <v>0.77999957669715303</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -1288,1619 +1295,1670 @@
         <v>0.74515648286140101</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>1</v>
-      </c>
-      <c r="B54" s="4">
-        <v>113</v>
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>823</v>
       </c>
       <c r="C54">
+        <v>2022</v>
+      </c>
+      <c r="D54" s="2">
+        <v>3191.1679089183699</v>
+      </c>
+      <c r="E54" s="2">
+        <v>0.811301715827773</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="4">
+        <v>113</v>
+      </c>
+      <c r="C55">
         <v>1970</v>
       </c>
-      <c r="E54" s="3">
+      <c r="E55" s="3">
         <v>0.41666699941666702</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A55" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="4">
-        <v>113</v>
-      </c>
-      <c r="C55">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="4">
+        <v>113</v>
+      </c>
+      <c r="C56">
         <v>1971</v>
       </c>
-      <c r="E55" s="3">
+      <c r="E56" s="3">
         <v>0.41092023742942502</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A56" t="s">
-        <v>1</v>
-      </c>
-      <c r="B56" s="4">
-        <v>113</v>
-      </c>
-      <c r="C56">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="4">
+        <v>113</v>
+      </c>
+      <c r="C57">
         <v>1972</v>
       </c>
-      <c r="E56" s="3">
+      <c r="E57" s="3">
         <v>0.40039046153000801</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A57" t="s">
-        <v>1</v>
-      </c>
-      <c r="B57" s="4">
-        <v>113</v>
-      </c>
-      <c r="C57">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="4">
+        <v>113</v>
+      </c>
+      <c r="C58">
         <v>1973</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E58" s="3">
         <v>0.40817094529930797</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A58" t="s">
-        <v>1</v>
-      </c>
-      <c r="B58" s="4">
-        <v>113</v>
-      </c>
-      <c r="C58">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="4">
+        <v>113</v>
+      </c>
+      <c r="C59">
         <v>1974</v>
       </c>
-      <c r="E58" s="3">
+      <c r="E59" s="3">
         <v>0.42775643974766298</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A59" t="s">
-        <v>1</v>
-      </c>
-      <c r="B59" s="4">
-        <v>113</v>
-      </c>
-      <c r="C59">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="4">
+        <v>113</v>
+      </c>
+      <c r="C60">
         <v>1975</v>
       </c>
-      <c r="E59" s="3">
+      <c r="E60" s="3">
         <v>0.45204116566666702</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A60" t="s">
-        <v>1</v>
-      </c>
-      <c r="B60" s="4">
-        <v>113</v>
-      </c>
-      <c r="C60">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="4">
+        <v>113</v>
+      </c>
+      <c r="C61">
         <v>1976</v>
       </c>
-      <c r="E60" s="3">
+      <c r="E61" s="3">
         <v>0.55650983233333295</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A61" t="s">
-        <v>1</v>
-      </c>
-      <c r="B61" s="4">
-        <v>113</v>
-      </c>
-      <c r="C61">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="4">
+        <v>113</v>
+      </c>
+      <c r="C62">
         <v>1977</v>
       </c>
-      <c r="E61" s="3">
+      <c r="E62" s="3">
         <v>0.57327199900000003</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A62" t="s">
-        <v>1</v>
-      </c>
-      <c r="B62" s="4">
-        <v>113</v>
-      </c>
-      <c r="C62">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="4">
+        <v>113</v>
+      </c>
+      <c r="C63">
         <v>1978</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E63" s="3">
         <v>0.52150458233333297</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A63" t="s">
-        <v>1</v>
-      </c>
-      <c r="B63" s="4">
-        <v>113</v>
-      </c>
-      <c r="C63">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="4">
+        <v>113</v>
+      </c>
+      <c r="C64">
         <v>1979</v>
       </c>
-      <c r="E63" s="3">
+      <c r="E64" s="3">
         <v>0.47218116566666701</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A64" t="s">
-        <v>1</v>
-      </c>
-      <c r="B64" s="4">
-        <v>113</v>
-      </c>
-      <c r="C64">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="4">
+        <v>113</v>
+      </c>
+      <c r="C65">
         <v>1980</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E65" s="3">
         <v>0.43029499900000001</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65" s="4">
-        <v>113</v>
-      </c>
-      <c r="C65">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="4">
+        <v>113</v>
+      </c>
+      <c r="C66">
         <v>1981</v>
       </c>
-      <c r="E65" s="3">
+      <c r="E66" s="3">
         <v>0.49764133233333302</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A66" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66" s="4">
-        <v>113</v>
-      </c>
-      <c r="C66">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="4">
+        <v>113</v>
+      </c>
+      <c r="C67">
         <v>1982</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E67" s="3">
         <v>0.57244683233333304</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A67" t="s">
-        <v>1</v>
-      </c>
-      <c r="B67" s="4">
-        <v>113</v>
-      </c>
-      <c r="C67">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="4">
+        <v>113</v>
+      </c>
+      <c r="C68">
         <v>1983</v>
       </c>
-      <c r="E67" s="3">
+      <c r="E68" s="3">
         <v>0.65972458233333298</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A68" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="4">
-        <v>113</v>
-      </c>
-      <c r="C68">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="4">
+        <v>113</v>
+      </c>
+      <c r="C69">
         <v>1984</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E69" s="3">
         <v>0.75180666625000003</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A69" t="s">
-        <v>1</v>
-      </c>
-      <c r="B69" s="4">
-        <v>113</v>
-      </c>
-      <c r="C69">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="4">
+        <v>113</v>
+      </c>
+      <c r="C70">
         <v>1985</v>
       </c>
-      <c r="E69" s="3">
+      <c r="E70" s="3">
         <v>0.77924599974999997</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A70" t="s">
-        <v>1</v>
-      </c>
-      <c r="B70" s="4">
-        <v>113</v>
-      </c>
-      <c r="C70">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="4">
+        <v>113</v>
+      </c>
+      <c r="C71">
         <v>1986</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E71" s="3">
         <v>0.68219733333333299</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A71" t="s">
-        <v>1</v>
-      </c>
-      <c r="B71" s="4">
-        <v>113</v>
-      </c>
-      <c r="C71">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="4">
+        <v>113</v>
+      </c>
+      <c r="C72">
         <v>1987</v>
       </c>
-      <c r="E71" s="3">
+      <c r="E72" s="3">
         <v>0.61192650000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A72" t="s">
-        <v>1</v>
-      </c>
-      <c r="B72" s="4">
-        <v>113</v>
-      </c>
-      <c r="C72">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="4">
+        <v>113</v>
+      </c>
+      <c r="C73">
         <v>1988</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E73" s="3">
         <v>0.56217016666666697</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A73" t="s">
-        <v>1</v>
-      </c>
-      <c r="B73" s="4">
-        <v>113</v>
-      </c>
-      <c r="C73">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="4">
+        <v>113</v>
+      </c>
+      <c r="C74">
         <v>1989</v>
       </c>
-      <c r="E73" s="3">
+      <c r="E74" s="3">
         <v>0.61117275000000004</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A74" t="s">
-        <v>1</v>
-      </c>
-      <c r="B74" s="4">
-        <v>113</v>
-      </c>
-      <c r="C74">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="4">
+        <v>113</v>
+      </c>
+      <c r="C75">
         <v>1990</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E75" s="3">
         <v>0.56317716666666695</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A75" t="s">
-        <v>1</v>
-      </c>
-      <c r="B75" s="4">
-        <v>113</v>
-      </c>
-      <c r="C75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="4">
+        <v>113</v>
+      </c>
+      <c r="C76">
         <v>1991</v>
       </c>
-      <c r="D75" s="2">
+      <c r="D76" s="2">
         <v>1208.0802047681257</v>
       </c>
-      <c r="E75" s="3">
+      <c r="E76" s="3">
         <v>0.56701533333333298</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A76" t="s">
-        <v>1</v>
-      </c>
-      <c r="B76">
-        <v>113</v>
-      </c>
-      <c r="C76">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77">
+        <v>113</v>
+      </c>
+      <c r="C77">
         <v>1992</v>
       </c>
-      <c r="D76" s="2">
+      <c r="D77" s="2">
         <v>1233.8221722349074</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E77" s="3">
         <v>0.56977416666666703</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A77" t="s">
-        <v>1</v>
-      </c>
-      <c r="B77">
-        <v>113</v>
-      </c>
-      <c r="C77">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78">
+        <v>113</v>
+      </c>
+      <c r="C78">
         <v>1993</v>
       </c>
-      <c r="D77" s="2">
+      <c r="D78" s="2">
         <v>1067.8560209726945</v>
       </c>
-      <c r="E77" s="3">
+      <c r="E78" s="3">
         <v>0.66675655333333295</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A78" t="s">
-        <v>1</v>
-      </c>
-      <c r="B78">
-        <v>113</v>
-      </c>
-      <c r="C78">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79">
+        <v>113</v>
+      </c>
+      <c r="C79">
         <v>1994</v>
       </c>
-      <c r="D78" s="2">
+      <c r="D79" s="2">
         <v>1147.7953227149294</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E79" s="3">
         <v>0.65342660416666698</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A79" t="s">
-        <v>1</v>
-      </c>
-      <c r="B79">
-        <v>113</v>
-      </c>
-      <c r="C79">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80">
+        <v>113</v>
+      </c>
+      <c r="C80">
         <v>1995</v>
       </c>
-      <c r="D79" s="2">
+      <c r="D80" s="2">
         <v>1289.3184526941327</v>
       </c>
-      <c r="E79" s="3">
+      <c r="E80" s="3">
         <v>0.63366811999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A80" t="s">
-        <v>1</v>
-      </c>
-      <c r="B80">
-        <v>113</v>
-      </c>
-      <c r="C80">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81">
+        <v>113</v>
+      </c>
+      <c r="C81">
         <v>1996</v>
       </c>
-      <c r="D80" s="2">
+      <c r="D81" s="2">
         <v>1352.6621948257769</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E81" s="3">
         <v>0.64095825500000003</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
-        <v>1</v>
-      </c>
-      <c r="B81">
-        <v>113</v>
-      </c>
-      <c r="C81">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82">
+        <v>113</v>
+      </c>
+      <c r="C82">
         <v>1997</v>
       </c>
-      <c r="D81" s="2">
+      <c r="D82" s="2">
         <v>1563.430808774066</v>
       </c>
-      <c r="E81" s="3">
+      <c r="E82" s="3">
         <v>0.61083611416666705</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
-        <v>1</v>
-      </c>
-      <c r="B82">
-        <v>113</v>
-      </c>
-      <c r="C82">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83">
+        <v>113</v>
+      </c>
+      <c r="C83">
         <v>1998</v>
       </c>
-      <c r="D82" s="2">
+      <c r="D83" s="2">
         <v>1682.6106329981608</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E83" s="3">
         <v>0.60382359416666698</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>1</v>
-      </c>
-      <c r="B83">
-        <v>113</v>
-      </c>
-      <c r="C83">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84">
+        <v>113</v>
+      </c>
+      <c r="C84">
         <v>1999</v>
       </c>
-      <c r="D83" s="2">
+      <c r="D84" s="2">
         <v>1747.4120847249899</v>
       </c>
-      <c r="E83" s="3">
+      <c r="E84" s="3">
         <v>0.61805684500000002</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B84">
-        <v>113</v>
-      </c>
-      <c r="C84">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85">
+        <v>113</v>
+      </c>
+      <c r="C85">
         <v>2000</v>
       </c>
-      <c r="D84" s="2">
+      <c r="D85" s="2">
         <v>1823.1862386003586</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E85" s="3">
         <v>0.66093083333333302</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>1</v>
-      </c>
-      <c r="B85">
-        <v>113</v>
-      </c>
-      <c r="C85">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86">
+        <v>113</v>
+      </c>
+      <c r="C86">
         <v>2001</v>
       </c>
-      <c r="D85" s="2">
+      <c r="D86" s="2">
         <v>1787.9378972295599</v>
       </c>
-      <c r="E85" s="3">
+      <c r="E86" s="3">
         <v>0.69465500000000002</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>1</v>
-      </c>
-      <c r="B86">
-        <v>113</v>
-      </c>
-      <c r="C86">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87">
+        <v>113</v>
+      </c>
+      <c r="C87">
         <v>2002</v>
       </c>
-      <c r="D86" s="2">
+      <c r="D87" s="2">
         <v>1973.8518337188459</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E87" s="3">
         <v>0.66722333333333295</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>1</v>
-      </c>
-      <c r="B87">
-        <v>113</v>
-      </c>
-      <c r="C87">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88">
+        <v>113</v>
+      </c>
+      <c r="C88">
         <v>2003</v>
       </c>
-      <c r="D87" s="2">
+      <c r="D88" s="2">
         <v>2184.5878794558125</v>
       </c>
-      <c r="E87" s="3">
+      <c r="E88" s="3">
         <v>0.61247249999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>1</v>
-      </c>
-      <c r="B88">
-        <v>113</v>
-      </c>
-      <c r="C88">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89">
+        <v>113</v>
+      </c>
+      <c r="C89">
         <v>2004</v>
       </c>
-      <c r="D88" s="2">
+      <c r="D89" s="2">
         <v>2660.2951407960745</v>
       </c>
-      <c r="E88" s="3">
+      <c r="E89" s="3">
         <v>0.54618</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>1</v>
-      </c>
-      <c r="B89">
-        <v>113</v>
-      </c>
-      <c r="C89">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90">
+        <v>113</v>
+      </c>
+      <c r="C90">
         <v>2005</v>
       </c>
-      <c r="D89" s="2">
+      <c r="D90" s="2">
         <v>2663.644435286169</v>
       </c>
-      <c r="E89" s="3">
+      <c r="E90" s="3">
         <v>0.54999833333333303</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A90" t="s">
-        <v>1</v>
-      </c>
-      <c r="B90">
-        <v>113</v>
-      </c>
-      <c r="C90">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91">
+        <v>113</v>
+      </c>
+      <c r="C91">
         <v>2006</v>
       </c>
-      <c r="D90" s="2">
+      <c r="D91" s="2">
         <v>2914.5149221692018</v>
       </c>
-      <c r="E90" s="3">
+      <c r="E91" s="3">
         <v>0.54348666666666701</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A91" t="s">
-        <v>1</v>
-      </c>
-      <c r="B91">
-        <v>113</v>
-      </c>
-      <c r="C91">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92">
+        <v>113</v>
+      </c>
+      <c r="C92">
         <v>2007</v>
       </c>
-      <c r="D91" s="2">
+      <c r="D92" s="2">
         <v>3549.6209935870688</v>
       </c>
-      <c r="E91" s="3">
+      <c r="E92" s="3">
         <v>0.499771666666667</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A92" t="s">
-        <v>1</v>
-      </c>
-      <c r="B92">
-        <v>113</v>
-      </c>
-      <c r="C92">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93">
+        <v>113</v>
+      </c>
+      <c r="C93">
         <v>2008</v>
       </c>
-      <c r="D92" s="2">
+      <c r="D93" s="2">
         <v>3384.4011462108174</v>
       </c>
-      <c r="E92" s="3">
+      <c r="E93" s="3">
         <v>0.54396624999999998</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A93" t="s">
-        <v>1</v>
-      </c>
-      <c r="B93">
-        <v>113</v>
-      </c>
-      <c r="C93">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94">
+        <v>113</v>
+      </c>
+      <c r="C94">
         <v>2009</v>
       </c>
-      <c r="D93" s="2">
+      <c r="D94" s="2">
         <v>3828.3164703302796</v>
       </c>
-      <c r="E93" s="3">
+      <c r="E94" s="3">
         <v>0.64191926349599604</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A94" t="s">
-        <v>1</v>
-      </c>
-      <c r="B94">
-        <v>113</v>
-      </c>
-      <c r="C94">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95">
+        <v>113</v>
+      </c>
+      <c r="C95">
         <v>2010</v>
       </c>
-      <c r="D94" s="2">
+      <c r="D95" s="2">
         <v>3744.1575499249579</v>
       </c>
-      <c r="E94" s="3">
+      <c r="E95" s="3">
         <v>0.64717934556016499</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A95" t="s">
-        <v>1</v>
-      </c>
-      <c r="B95">
-        <v>113</v>
-      </c>
-      <c r="C95">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96">
+        <v>113</v>
+      </c>
+      <c r="C96">
         <v>2011</v>
       </c>
-      <c r="D95" s="2">
+      <c r="D96" s="2">
         <v>4212.8025394599672</v>
       </c>
-      <c r="E95" s="3">
+      <c r="E96" s="3">
         <v>0.62414083574049495</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>1</v>
-      </c>
-      <c r="B96">
-        <v>113</v>
-      </c>
-      <c r="C96">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97">
+        <v>113</v>
+      </c>
+      <c r="C97">
         <v>2012</v>
       </c>
-      <c r="D96" s="2">
+      <c r="D97" s="2">
         <v>4130.4074516428045</v>
       </c>
-      <c r="E96" s="3">
+      <c r="E97" s="3">
         <v>0.63304698885732702</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>1</v>
-      </c>
-      <c r="B97">
-        <v>113</v>
-      </c>
-      <c r="C97">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98">
+        <v>113</v>
+      </c>
+      <c r="C98">
         <v>2013</v>
       </c>
-      <c r="D97" s="2">
+      <c r="D98" s="2">
         <v>4244.9063148015321</v>
       </c>
-      <c r="E97" s="3">
+      <c r="E98" s="3">
         <v>0.63966057761347705</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>1</v>
-      </c>
-      <c r="B98">
-        <v>113</v>
-      </c>
-      <c r="C98">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99">
+        <v>113</v>
+      </c>
+      <c r="C99">
         <v>2014</v>
       </c>
-      <c r="D98" s="2">
+      <c r="D99" s="2">
         <v>4573.3541019402692</v>
       </c>
-      <c r="E98" s="3">
+      <c r="E99" s="3">
         <v>0.60772962687825505</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>1</v>
-      </c>
-      <c r="B99">
-        <v>113</v>
-      </c>
-      <c r="C99">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100">
+        <v>113</v>
+      </c>
+      <c r="C100">
         <v>2015</v>
       </c>
-      <c r="D99" s="2">
+      <c r="D100" s="2">
         <v>4301.5782632126648</v>
       </c>
-      <c r="E99" s="3">
+      <c r="E100" s="3">
         <v>0.65454547893142601</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>1</v>
-      </c>
-      <c r="B100">
-        <v>113</v>
-      </c>
-      <c r="C100">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101">
+        <v>113</v>
+      </c>
+      <c r="C101">
         <v>2016</v>
       </c>
-      <c r="D100" s="2">
+      <c r="D101" s="2">
         <v>3961.9571496118306</v>
       </c>
-      <c r="E100" s="3">
+      <c r="E101" s="3">
         <v>0.74063446369708397</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>1</v>
-      </c>
-      <c r="B101">
-        <v>113</v>
-      </c>
-      <c r="C101">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102">
+        <v>113</v>
+      </c>
+      <c r="C102">
         <v>2017</v>
       </c>
-      <c r="D101" s="2">
+      <c r="D102" s="2">
         <v>3990.8898564435076</v>
       </c>
-      <c r="E101" s="3">
+      <c r="E102" s="3">
         <v>0.77700259811597605</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B102">
-        <v>113</v>
-      </c>
-      <c r="C102">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103">
+        <v>113</v>
+      </c>
+      <c r="C103">
         <v>2018</v>
       </c>
-      <c r="D102" s="2">
+      <c r="D103" s="2">
         <v>4228.5174381961042</v>
       </c>
-      <c r="E102" s="3">
+      <c r="E103" s="3">
         <v>0.74958163765317698</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A103" t="s">
-        <v>1</v>
-      </c>
-      <c r="B103">
-        <v>113</v>
-      </c>
-      <c r="C103">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104">
+        <v>113</v>
+      </c>
+      <c r="C104">
         <v>2019</v>
       </c>
-      <c r="D103" s="2">
-        <v>4141.0904716145888</v>
-      </c>
-      <c r="E103" s="3">
+      <c r="D104" s="2">
+        <v>4145.79140068989</v>
+      </c>
+      <c r="E104" s="3">
         <v>0.78344511001192896</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A104" t="s">
-        <v>1</v>
-      </c>
-      <c r="B104">
-        <v>113</v>
-      </c>
-      <c r="C104">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105">
+        <v>113</v>
+      </c>
+      <c r="C105">
         <v>2020</v>
       </c>
-      <c r="D104" s="2">
-        <v>4074.102295907564</v>
-      </c>
-      <c r="E104" s="3">
+      <c r="D105" s="2">
+        <v>4006.4124306740873</v>
+      </c>
+      <c r="E105" s="3">
         <v>0.77999957669715303</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A105" t="s">
-        <v>1</v>
-      </c>
-      <c r="B105">
-        <v>113</v>
-      </c>
-      <c r="C105">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106">
+        <v>113</v>
+      </c>
+      <c r="C106">
         <v>2021</v>
       </c>
-      <c r="E105" s="3">
+      <c r="D106" s="2">
+        <v>4739.6041098876394</v>
+      </c>
+      <c r="E106" s="3">
         <v>0.72706494468832195</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A106" t="s">
-        <v>0</v>
-      </c>
-      <c r="B106">
-        <v>117</v>
-      </c>
-      <c r="C106">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107">
+        <v>113</v>
+      </c>
+      <c r="C107">
+        <v>2022</v>
+      </c>
+      <c r="E107" s="2">
+        <v>0.811301715827773</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108">
+        <v>117</v>
+      </c>
+      <c r="C108">
         <v>1970</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E108" s="1">
         <v>0.41666699941666702</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A107" t="s">
-        <v>0</v>
-      </c>
-      <c r="B107">
-        <v>117</v>
-      </c>
-      <c r="C107">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109">
+        <v>117</v>
+      </c>
+      <c r="C109">
         <v>1971</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E109" s="1">
         <v>0.41092023742942502</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A108" t="s">
-        <v>0</v>
-      </c>
-      <c r="B108">
-        <v>117</v>
-      </c>
-      <c r="C108">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110">
+        <v>117</v>
+      </c>
+      <c r="C110">
         <v>1972</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E110" s="1">
         <v>0.40039046153000801</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A109" t="s">
-        <v>0</v>
-      </c>
-      <c r="B109">
-        <v>117</v>
-      </c>
-      <c r="C109">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111">
+        <v>117</v>
+      </c>
+      <c r="C111">
         <v>1973</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E111" s="1">
         <v>0.40817094529930797</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A110" t="s">
-        <v>0</v>
-      </c>
-      <c r="B110">
-        <v>117</v>
-      </c>
-      <c r="C110">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112">
+        <v>117</v>
+      </c>
+      <c r="C112">
         <v>1974</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E112" s="1">
         <v>0.42775643974766298</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A111" t="s">
-        <v>0</v>
-      </c>
-      <c r="B111">
-        <v>117</v>
-      </c>
-      <c r="C111">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113">
+        <v>117</v>
+      </c>
+      <c r="C113">
         <v>1975</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E113" s="1">
         <v>0.45204116566666702</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A112" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112">
-        <v>117</v>
-      </c>
-      <c r="C112">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114">
+        <v>117</v>
+      </c>
+      <c r="C114">
         <v>1976</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E114" s="1">
         <v>0.55650983233333295</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A113" t="s">
-        <v>0</v>
-      </c>
-      <c r="B113">
-        <v>117</v>
-      </c>
-      <c r="C113">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115">
+        <v>117</v>
+      </c>
+      <c r="C115">
         <v>1977</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E115" s="1">
         <v>0.57327199900000003</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A114" t="s">
-        <v>0</v>
-      </c>
-      <c r="B114">
-        <v>117</v>
-      </c>
-      <c r="C114">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116">
+        <v>117</v>
+      </c>
+      <c r="C116">
         <v>1978</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E116" s="1">
         <v>0.52150458233333297</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A115" t="s">
-        <v>0</v>
-      </c>
-      <c r="B115">
-        <v>117</v>
-      </c>
-      <c r="C115">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117">
+        <v>117</v>
+      </c>
+      <c r="C117">
         <v>1979</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E117" s="1">
         <v>0.47218116566666701</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A116" t="s">
-        <v>0</v>
-      </c>
-      <c r="B116">
-        <v>117</v>
-      </c>
-      <c r="C116">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118">
+        <v>117</v>
+      </c>
+      <c r="C118">
         <v>1980</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E118" s="1">
         <v>0.43029499900000001</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A117" t="s">
-        <v>0</v>
-      </c>
-      <c r="B117">
-        <v>117</v>
-      </c>
-      <c r="C117">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>0</v>
+      </c>
+      <c r="B119">
+        <v>117</v>
+      </c>
+      <c r="C119">
         <v>1981</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E119" s="1">
         <v>0.49764133233333302</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A118" t="s">
-        <v>0</v>
-      </c>
-      <c r="B118">
-        <v>117</v>
-      </c>
-      <c r="C118">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>0</v>
+      </c>
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="C120">
         <v>1982</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E120" s="1">
         <v>0.57244683233333304</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A119" t="s">
-        <v>0</v>
-      </c>
-      <c r="B119">
-        <v>117</v>
-      </c>
-      <c r="C119">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>0</v>
+      </c>
+      <c r="B121">
+        <v>117</v>
+      </c>
+      <c r="C121">
         <v>1983</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E121" s="1">
         <v>0.65972458233333298</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A120" t="s">
-        <v>0</v>
-      </c>
-      <c r="B120">
-        <v>117</v>
-      </c>
-      <c r="C120">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>0</v>
+      </c>
+      <c r="B122">
+        <v>117</v>
+      </c>
+      <c r="C122">
         <v>1984</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E122" s="1">
         <v>0.75180666625000003</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A121" t="s">
-        <v>0</v>
-      </c>
-      <c r="B121">
-        <v>117</v>
-      </c>
-      <c r="C121">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>0</v>
+      </c>
+      <c r="B123">
+        <v>117</v>
+      </c>
+      <c r="C123">
         <v>1985</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E123" s="1">
         <v>0.77924599974999997</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A122" t="s">
-        <v>0</v>
-      </c>
-      <c r="B122">
-        <v>117</v>
-      </c>
-      <c r="C122">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>0</v>
+      </c>
+      <c r="B124">
+        <v>117</v>
+      </c>
+      <c r="C124">
         <v>1986</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E124" s="1">
         <v>0.68219733333333299</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A123" t="s">
-        <v>0</v>
-      </c>
-      <c r="B123">
-        <v>117</v>
-      </c>
-      <c r="C123">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>0</v>
+      </c>
+      <c r="B125">
+        <v>117</v>
+      </c>
+      <c r="C125">
         <v>1987</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E125" s="1">
         <v>0.61192650000000004</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A124" t="s">
-        <v>0</v>
-      </c>
-      <c r="B124">
-        <v>117</v>
-      </c>
-      <c r="C124">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>0</v>
+      </c>
+      <c r="B126">
+        <v>117</v>
+      </c>
+      <c r="C126">
         <v>1988</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E126" s="1">
         <v>0.56217016666666697</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
-        <v>0</v>
-      </c>
-      <c r="B125">
-        <v>117</v>
-      </c>
-      <c r="C125">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>0</v>
+      </c>
+      <c r="B127">
+        <v>117</v>
+      </c>
+      <c r="C127">
         <v>1989</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E127" s="1">
         <v>0.61117275000000004</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
-        <v>0</v>
-      </c>
-      <c r="B126">
-        <v>117</v>
-      </c>
-      <c r="C126">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>0</v>
+      </c>
+      <c r="B128">
+        <v>117</v>
+      </c>
+      <c r="C128">
         <v>1990</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E128" s="1">
         <v>0.56317716666666695</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
-        <v>0</v>
-      </c>
-      <c r="B127">
-        <v>117</v>
-      </c>
-      <c r="C127">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>0</v>
+      </c>
+      <c r="B129">
+        <v>117</v>
+      </c>
+      <c r="C129">
         <v>1991</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E129" s="1">
         <v>0.56701533333333298</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A128" t="s">
-        <v>0</v>
-      </c>
-      <c r="B128">
-        <v>117</v>
-      </c>
-      <c r="C128">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>0</v>
+      </c>
+      <c r="B130">
+        <v>117</v>
+      </c>
+      <c r="C130">
         <v>1992</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E130" s="1">
         <v>0.56977416666666703</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A129" t="s">
-        <v>0</v>
-      </c>
-      <c r="B129">
-        <v>117</v>
-      </c>
-      <c r="C129">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>0</v>
+      </c>
+      <c r="B131">
+        <v>117</v>
+      </c>
+      <c r="C131">
         <v>1993</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E131" s="1">
         <v>0.66675655333333295</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A130" t="s">
-        <v>0</v>
-      </c>
-      <c r="B130">
-        <v>117</v>
-      </c>
-      <c r="C130">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>0</v>
+      </c>
+      <c r="B132">
+        <v>117</v>
+      </c>
+      <c r="C132">
         <v>1994</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E132" s="1">
         <v>0.65342660416666698</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A131" t="s">
-        <v>0</v>
-      </c>
-      <c r="B131">
-        <v>117</v>
-      </c>
-      <c r="C131">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133">
+        <v>117</v>
+      </c>
+      <c r="C133">
         <v>1995</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E133" s="1">
         <v>0.63366811999999995</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A132" t="s">
-        <v>0</v>
-      </c>
-      <c r="B132">
-        <v>117</v>
-      </c>
-      <c r="C132">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134">
+        <v>117</v>
+      </c>
+      <c r="C134">
         <v>1996</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E134" s="1">
         <v>0.64095825500000003</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A133" t="s">
-        <v>0</v>
-      </c>
-      <c r="B133">
-        <v>117</v>
-      </c>
-      <c r="C133">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135">
+        <v>117</v>
+      </c>
+      <c r="C135">
         <v>1997</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E135" s="1">
         <v>0.61083611416666705</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A134" t="s">
-        <v>0</v>
-      </c>
-      <c r="B134">
-        <v>117</v>
-      </c>
-      <c r="C134">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136">
+        <v>117</v>
+      </c>
+      <c r="C136">
         <v>1998</v>
       </c>
-      <c r="D134" s="2">
+      <c r="D136" s="2">
         <v>4122.064828279943</v>
       </c>
-      <c r="E134" s="1">
+      <c r="E136" s="1">
         <v>0.60382359416666698</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A135" t="s">
-        <v>0</v>
-      </c>
-      <c r="B135">
-        <v>117</v>
-      </c>
-      <c r="C135">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137">
+        <v>117</v>
+      </c>
+      <c r="C137">
         <v>1999</v>
       </c>
-      <c r="D135" s="2">
+      <c r="D137" s="2">
         <v>4353.9684444397662</v>
       </c>
-      <c r="E135" s="1">
+      <c r="E137" s="1">
         <v>0.61805684500000002</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A136" t="s">
-        <v>0</v>
-      </c>
-      <c r="B136">
-        <v>117</v>
-      </c>
-      <c r="C136">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138">
+        <v>117</v>
+      </c>
+      <c r="C138">
         <v>2000</v>
       </c>
-      <c r="D136" s="2">
+      <c r="D138" s="2">
         <v>4466.4280301645304</v>
       </c>
-      <c r="E136" s="1">
+      <c r="E138" s="1">
         <v>0.66093083333333302</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A137" t="s">
-        <v>0</v>
-      </c>
-      <c r="B137">
-        <v>117</v>
-      </c>
-      <c r="C137">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139">
+        <v>117</v>
+      </c>
+      <c r="C139">
         <v>2001</v>
       </c>
-      <c r="D137" s="2">
+      <c r="D139" s="2">
         <v>4275.5036672880778</v>
       </c>
-      <c r="E137" s="1">
+      <c r="E139" s="1">
         <v>0.69465500000000002</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A138" t="s">
-        <v>0</v>
-      </c>
-      <c r="B138">
-        <v>117</v>
-      </c>
-      <c r="C138">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140">
+        <v>117</v>
+      </c>
+      <c r="C140">
         <v>2002</v>
       </c>
-      <c r="D138" s="2">
+      <c r="D140" s="2">
         <v>4497.74438343983</v>
       </c>
-      <c r="E138" s="1">
+      <c r="E140" s="1">
         <v>0.66722333333333295</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A139" t="s">
-        <v>0</v>
-      </c>
-      <c r="B139">
-        <v>117</v>
-      </c>
-      <c r="C139">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141">
+        <v>117</v>
+      </c>
+      <c r="C141">
         <v>2003</v>
       </c>
-      <c r="D139" s="2">
+      <c r="D141" s="2">
         <v>4927.5681765303752</v>
       </c>
-      <c r="E139" s="1">
+      <c r="E141" s="1">
         <v>0.61247249999999998</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A140" t="s">
-        <v>0</v>
-      </c>
-      <c r="B140">
-        <v>117</v>
-      </c>
-      <c r="C140">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142">
+        <v>117</v>
+      </c>
+      <c r="C142">
         <v>2004</v>
       </c>
-      <c r="D140" s="2">
+      <c r="D142" s="2">
         <v>5639.1665751217552</v>
       </c>
-      <c r="E140" s="1">
+      <c r="E142" s="1">
         <v>0.54618</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A141" t="s">
-        <v>0</v>
-      </c>
-      <c r="B141">
-        <v>117</v>
-      </c>
-      <c r="C141">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143">
+        <v>117</v>
+      </c>
+      <c r="C143">
         <v>2005</v>
       </c>
-      <c r="D141" s="2">
+      <c r="D143" s="2">
         <v>5787.2902645159566</v>
       </c>
-      <c r="E141" s="1">
+      <c r="E143" s="1">
         <v>0.54999833333333303</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A142" t="s">
-        <v>0</v>
-      </c>
-      <c r="B142">
-        <v>117</v>
-      </c>
-      <c r="C142">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144">
+        <v>117</v>
+      </c>
+      <c r="C144">
         <v>2006</v>
       </c>
-      <c r="D142" s="2">
+      <c r="D144" s="2">
         <v>6311.1023882830568</v>
       </c>
-      <c r="E142" s="1">
+      <c r="E144" s="1">
         <v>0.54348666666666701</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A143" t="s">
-        <v>0</v>
-      </c>
-      <c r="B143">
-        <v>117</v>
-      </c>
-      <c r="C143">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145">
+        <v>117</v>
+      </c>
+      <c r="C145">
         <v>2007</v>
       </c>
-      <c r="D143" s="2">
+      <c r="D145" s="2">
         <v>7419.3881872721822</v>
       </c>
-      <c r="E143" s="1">
+      <c r="E145" s="1">
         <v>0.499771666666667</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A144" t="s">
-        <v>0</v>
-      </c>
-      <c r="B144">
-        <v>117</v>
-      </c>
-      <c r="C144">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146">
+        <v>117</v>
+      </c>
+      <c r="C146">
         <v>2008</v>
       </c>
-      <c r="D144" s="2">
+      <c r="D146" s="2">
         <v>6847.8513143048858</v>
       </c>
-      <c r="E144" s="1">
+      <c r="E146" s="1">
         <v>0.54396624999999998</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A145" t="s">
-        <v>0</v>
-      </c>
-      <c r="B145">
-        <v>117</v>
-      </c>
-      <c r="C145">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147">
+        <v>117</v>
+      </c>
+      <c r="C147">
         <v>2009</v>
       </c>
-      <c r="D145" s="2">
+      <c r="D147" s="2">
         <v>5653.3589290277405</v>
       </c>
-      <c r="E145" s="1">
+      <c r="E147" s="1">
         <v>0.64191926349599604</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A146" t="s">
-        <v>0</v>
-      </c>
-      <c r="B146">
-        <v>117</v>
-      </c>
-      <c r="C146">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148">
+        <v>117</v>
+      </c>
+      <c r="C148">
         <v>2010</v>
       </c>
-      <c r="D146" s="2">
+      <c r="D148" s="2">
         <v>5493.0677630371156</v>
       </c>
-      <c r="E146" s="1">
+      <c r="E148" s="1">
         <v>0.64717934556016499</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A147" t="s">
-        <v>0</v>
-      </c>
-      <c r="B147">
-        <v>117</v>
-      </c>
-      <c r="C147">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149">
+        <v>117</v>
+      </c>
+      <c r="C149">
         <v>2011</v>
       </c>
-      <c r="D147" s="2">
+      <c r="D149" s="2">
         <v>5848.039081867727</v>
       </c>
-      <c r="E147" s="1">
+      <c r="E149" s="1">
         <v>0.62414083574049495</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148">
-        <v>117</v>
-      </c>
-      <c r="C148">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150">
+        <v>117</v>
+      </c>
+      <c r="C150">
         <v>2012</v>
       </c>
-      <c r="D148" s="2">
+      <c r="D150" s="2">
         <v>5713.6358969636949</v>
       </c>
-      <c r="E148" s="1">
+      <c r="E150" s="1">
         <v>0.63304698885732702</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149">
-        <v>117</v>
-      </c>
-      <c r="C149">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151">
+        <v>117</v>
+      </c>
+      <c r="C151">
         <v>2013</v>
       </c>
-      <c r="D149" s="2">
+      <c r="D151" s="2">
         <v>5728.0378504332621</v>
       </c>
-      <c r="E149" s="1">
+      <c r="E151" s="1">
         <v>0.63966057761347705</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150">
-        <v>117</v>
-      </c>
-      <c r="C150">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B152">
+        <v>117</v>
+      </c>
+      <c r="C152">
         <v>2014</v>
       </c>
-      <c r="D150" s="2">
+      <c r="D152" s="2">
         <v>6537.4466280478064</v>
       </c>
-      <c r="E150" s="1">
+      <c r="E152" s="1">
         <v>0.60772962687825505</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151">
-        <v>117</v>
-      </c>
-      <c r="C151">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>0</v>
+      </c>
+      <c r="B153">
+        <v>117</v>
+      </c>
+      <c r="C153">
         <v>2015</v>
       </c>
-      <c r="D151" s="2">
+      <c r="D153" s="2">
         <v>6143.1942155714796</v>
       </c>
-      <c r="E151" s="1">
+      <c r="E153" s="1">
         <v>0.65454547893142601</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A152" t="s">
-        <v>0</v>
-      </c>
-      <c r="B152">
-        <v>117</v>
-      </c>
-      <c r="C152">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>0</v>
+      </c>
+      <c r="B154">
+        <v>117</v>
+      </c>
+      <c r="C154">
         <v>2016</v>
       </c>
-      <c r="D152" s="2">
+      <c r="D154" s="2">
         <v>5553.3467609228046</v>
       </c>
-      <c r="E152" s="1">
+      <c r="E154" s="1">
         <v>0.74063446369708397</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A153" t="s">
-        <v>0</v>
-      </c>
-      <c r="B153">
-        <v>117</v>
-      </c>
-      <c r="C153">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>0</v>
+      </c>
+      <c r="B155">
+        <v>117</v>
+      </c>
+      <c r="C155">
         <v>2017</v>
       </c>
-      <c r="D153" s="2">
+      <c r="D155" s="2">
         <v>5539.2350172780007</v>
       </c>
-      <c r="E153" s="1">
+      <c r="E155" s="1">
         <v>0.77700259811597605</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A154" t="s">
-        <v>0</v>
-      </c>
-      <c r="B154">
-        <v>117</v>
-      </c>
-      <c r="C154">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>0</v>
+      </c>
+      <c r="B156">
+        <v>117</v>
+      </c>
+      <c r="C156">
         <v>2018</v>
       </c>
-      <c r="D154" s="2">
+      <c r="D156" s="2">
         <v>6192.7877723010624</v>
       </c>
-      <c r="E154" s="1">
+      <c r="E156" s="1">
         <v>0.74958163765317698</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A155" t="s">
-        <v>0</v>
-      </c>
-      <c r="B155">
-        <v>117</v>
-      </c>
-      <c r="C155">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B157">
+        <v>117</v>
+      </c>
+      <c r="C157">
         <v>2019</v>
       </c>
-      <c r="D155" s="2">
+      <c r="D157" s="2">
         <v>6235.2804779464632</v>
       </c>
-      <c r="E155" s="1">
+      <c r="E157" s="1">
         <v>0.78344511001192896</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A156" t="s">
-        <v>0</v>
-      </c>
-      <c r="B156">
-        <v>117</v>
-      </c>
-      <c r="C156">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158">
+        <v>117</v>
+      </c>
+      <c r="C158">
         <v>2020</v>
       </c>
-      <c r="D156" s="2">
+      <c r="D158" s="2">
         <v>5805.1313555495253</v>
       </c>
-      <c r="E156" s="1">
+      <c r="E158" s="1">
         <v>0.77999957669715303</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B157">
-        <v>117</v>
-      </c>
-      <c r="C157">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159">
+        <v>117</v>
+      </c>
+      <c r="C159">
         <v>2021</v>
       </c>
-      <c r="E157" s="1">
+      <c r="D159" s="2">
+        <v>6996.6239428318113</v>
+      </c>
+      <c r="E159" s="1">
         <v>0.72706494468832195</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160">
+        <v>117</v>
+      </c>
+      <c r="C160">
+        <v>2022</v>
+      </c>
+      <c r="E160" s="2">
+        <v>0.811301715827773</v>
       </c>
     </row>
   </sheetData>
@@ -2910,15 +2968,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{904F5CD4-541D-934F-9C0D-E8991CBDCE89}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -2932,7 +2990,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -2946,7 +3004,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -2960,7 +3018,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -2974,7 +3032,7 @@
         <v>629</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2988,7 +3046,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3002,7 +3060,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -3016,7 +3074,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -3030,7 +3088,7 @@
         <v>680</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -3044,7 +3102,7 @@
         <v>720</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -3058,8 +3116,23 @@
         <v>637</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>2021</v>
+      </c>
+      <c r="D11" s="9">
+        <v>735</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3071,9 +3144,9 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>11</v>
       </c>
